--- a/GCF_DataFiles/CAR_A_COMPLÉTER.xlsx
+++ b/GCF_DataFiles/CAR_A_COMPLÉTER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\GCF_DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\(1) GC FISCALITÉ\2024-08-28 Dossier de la facturation à balancer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30CF1DE7-376C-4476-B7FE-3D9FBA2C6F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F8FF6D-4A37-419C-BDA4-5EC9272F3335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC59FFF7-6222-49BE-857A-D5CD65BA30E6}"/>
+    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="10500" xr2:uid="{FC59FFF7-6222-49BE-857A-D5CD65BA30E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="208">
   <si>
     <t>Inv_No</t>
   </si>
@@ -278,9 +278,6 @@
     <t>Destination Hockey Inc.</t>
   </si>
   <si>
-    <t>156</t>
-  </si>
-  <si>
     <t>Laurent Harvey, CGA</t>
   </si>
   <si>
@@ -654,6 +651,15 @@
   </si>
   <si>
     <t>Vérification</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Preuve</t>
+  </si>
+  <si>
+    <t>PREUVE</t>
   </si>
 </sst>
 </file>
@@ -664,7 +670,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;$&quot;"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -687,6 +693,14 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -702,7 +716,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -719,12 +733,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -768,12 +862,29 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -784,114 +895,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1233,10 +1236,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8315B25-030A-4FD2-AFA3-EC4C26927A44}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:W120"/>
+  <dimension ref="A1:X127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="X121" sqref="X121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1253,7 +1256,7 @@
     <col min="20" max="23" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1321,10 +1324,10 @@
         <v>21</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>24059</v>
       </c>
@@ -1345,7 +1348,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="11">
-        <v>1408.44</v>
+        <v>1225</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>25</v>
@@ -1369,13 +1372,13 @@
         <v>0.05</v>
       </c>
       <c r="R2" s="11">
-        <v>0</v>
+        <v>61.25</v>
       </c>
       <c r="S2" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T2" s="11">
-        <v>0</v>
+        <v>122.19</v>
       </c>
       <c r="U2" s="11">
         <v>1408.44</v>
@@ -1387,8 +1390,11 @@
         <f>U2-(J2+L2+N2+P2+R2+T2)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>24133</v>
       </c>
@@ -1409,7 +1415,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="11">
-        <v>13983.84</v>
+        <v>12162.5</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>25</v>
@@ -1433,13 +1439,13 @@
         <v>0.05</v>
       </c>
       <c r="R3" s="11">
-        <v>0</v>
+        <v>608.13</v>
       </c>
       <c r="S3" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T3" s="11">
-        <v>0</v>
+        <v>1213.21</v>
       </c>
       <c r="U3" s="11">
         <v>13983.84</v>
@@ -1451,8 +1457,11 @@
         <f t="shared" ref="W3:W66" si="0">U3-(J3+L3+N3+P3+R3+T3)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>24134</v>
       </c>
@@ -1473,7 +1482,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="11">
-        <v>1609.65</v>
+        <v>1400</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>25</v>
@@ -1497,13 +1506,13 @@
         <v>0.05</v>
       </c>
       <c r="R4" s="11">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="S4" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T4" s="11">
-        <v>0</v>
+        <v>139.65</v>
       </c>
       <c r="U4" s="11">
         <v>1609.65</v>
@@ -1515,8 +1524,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>24224</v>
       </c>
@@ -1537,13 +1549,13 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="11">
-        <v>7631.47</v>
+        <v>6562.5</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="11">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="M5" s="10" t="s">
         <v>26</v>
@@ -1561,13 +1573,13 @@
         <v>0.05</v>
       </c>
       <c r="R5" s="11">
-        <v>0</v>
+        <v>331.88</v>
       </c>
       <c r="S5" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T5" s="11">
-        <v>0</v>
+        <v>662.09</v>
       </c>
       <c r="U5" s="11">
         <v>7631.47</v>
@@ -1578,8 +1590,11 @@
       <c r="W5" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>24240</v>
       </c>
@@ -1600,7 +1615,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="11">
-        <v>1207.24</v>
+        <v>1050</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>25</v>
@@ -1624,13 +1639,13 @@
         <v>0.05</v>
       </c>
       <c r="R6" s="11">
-        <v>0</v>
+        <v>52.5</v>
       </c>
       <c r="S6" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T6" s="11">
-        <v>0</v>
+        <v>104.74</v>
       </c>
       <c r="U6" s="11">
         <v>1207.24</v>
@@ -1642,8 +1657,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>24268</v>
       </c>
@@ -1664,7 +1682,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="11">
-        <v>9255.49</v>
+        <v>8050</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>25</v>
@@ -1688,13 +1706,13 @@
         <v>0.05</v>
       </c>
       <c r="R7" s="11">
-        <v>0</v>
+        <v>402.5</v>
       </c>
       <c r="S7" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T7" s="11">
-        <v>0</v>
+        <v>802.99</v>
       </c>
       <c r="U7" s="11">
         <v>9255.49</v>
@@ -1706,8 +1724,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>24292</v>
       </c>
@@ -1728,7 +1749,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="11">
-        <v>201.21</v>
+        <v>175</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>25</v>
@@ -1752,13 +1773,13 @@
         <v>0.05</v>
       </c>
       <c r="R8" s="11">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="S8" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T8" s="11">
-        <v>0</v>
+        <v>17.46</v>
       </c>
       <c r="U8" s="11">
         <v>201.21</v>
@@ -1770,8 +1791,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>24324</v>
       </c>
@@ -1792,7 +1816,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="11">
-        <v>1911.46</v>
+        <v>1662.5</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>25</v>
@@ -1816,13 +1840,13 @@
         <v>0.05</v>
       </c>
       <c r="R9" s="11">
-        <v>0</v>
+        <v>83.13</v>
       </c>
       <c r="S9" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T9" s="11">
-        <v>0</v>
+        <v>165.83</v>
       </c>
       <c r="U9" s="11">
         <v>1911.46</v>
@@ -1834,8 +1858,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>24336</v>
       </c>
@@ -1856,7 +1883,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="11">
-        <v>1609.65</v>
+        <v>1400</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>25</v>
@@ -1880,13 +1907,13 @@
         <v>0.05</v>
       </c>
       <c r="R10" s="11">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="S10" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T10" s="11">
-        <v>0</v>
+        <v>139.65</v>
       </c>
       <c r="U10" s="11">
         <v>1609.65</v>
@@ -1898,8 +1925,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>24337</v>
       </c>
@@ -1920,7 +1950,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="11">
-        <v>1609.65</v>
+        <v>1400</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>25</v>
@@ -1944,13 +1974,13 @@
         <v>0.05</v>
       </c>
       <c r="R11" s="11">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="S11" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T11" s="11">
-        <v>0</v>
+        <v>139.65</v>
       </c>
       <c r="U11" s="11">
         <v>1609.65</v>
@@ -1962,8 +1992,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>24338</v>
       </c>
@@ -1984,7 +2017,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="11">
-        <v>1609.65</v>
+        <v>1400</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>25</v>
@@ -2008,13 +2041,13 @@
         <v>0.05</v>
       </c>
       <c r="R12" s="11">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="S12" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T12" s="11">
-        <v>0</v>
+        <v>139.65</v>
       </c>
       <c r="U12" s="11">
         <v>1609.65</v>
@@ -2026,8 +2059,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>24339</v>
       </c>
@@ -2048,7 +2084,7 @@
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="11">
-        <v>1609.65</v>
+        <v>1400</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>25</v>
@@ -2072,13 +2108,13 @@
         <v>0.05</v>
       </c>
       <c r="R13" s="11">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="S13" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T13" s="11">
-        <v>0</v>
+        <v>139.65</v>
       </c>
       <c r="U13" s="11">
         <v>1609.65</v>
@@ -2090,8 +2126,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>24340</v>
       </c>
@@ -2112,7 +2151,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="11">
-        <v>1609.65</v>
+        <v>1400</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>25</v>
@@ -2136,13 +2175,13 @@
         <v>0.05</v>
       </c>
       <c r="R14" s="11">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="S14" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T14" s="11">
-        <v>0</v>
+        <v>139.65</v>
       </c>
       <c r="U14" s="11">
         <v>1609.65</v>
@@ -2154,8 +2193,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>24341</v>
       </c>
@@ -2176,7 +2218,7 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="11">
-        <v>1106.6400000000001</v>
+        <v>962.5</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>25</v>
@@ -2200,13 +2242,13 @@
         <v>0.05</v>
       </c>
       <c r="R15" s="11">
-        <v>0</v>
+        <v>48.13</v>
       </c>
       <c r="S15" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T15" s="11">
-        <v>0</v>
+        <v>96.01</v>
       </c>
       <c r="U15" s="11">
         <v>1106.6400000000001</v>
@@ -2218,8 +2260,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>24342</v>
       </c>
@@ -2240,7 +2285,7 @@
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="11">
-        <v>1106.6400000000001</v>
+        <v>962.5</v>
       </c>
       <c r="K16" s="12" t="s">
         <v>25</v>
@@ -2264,13 +2309,13 @@
         <v>0.05</v>
       </c>
       <c r="R16" s="11">
-        <v>0</v>
+        <v>48.13</v>
       </c>
       <c r="S16" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T16" s="11">
-        <v>0</v>
+        <v>96.01</v>
       </c>
       <c r="U16" s="11">
         <v>1106.6400000000001</v>
@@ -2282,8 +2327,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>24343</v>
       </c>
@@ -2304,7 +2352,7 @@
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="11">
-        <v>1106.6400000000001</v>
+        <v>962.5</v>
       </c>
       <c r="K17" s="12" t="s">
         <v>25</v>
@@ -2328,13 +2376,13 @@
         <v>0.05</v>
       </c>
       <c r="R17" s="11">
-        <v>0</v>
+        <v>48.13</v>
       </c>
       <c r="S17" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T17" s="11">
-        <v>0</v>
+        <v>96.01</v>
       </c>
       <c r="U17" s="11">
         <v>1106.6400000000001</v>
@@ -2346,8 +2394,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>24344</v>
       </c>
@@ -2368,7 +2419,7 @@
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="11">
-        <v>1810.86</v>
+        <v>1575</v>
       </c>
       <c r="K18" s="12" t="s">
         <v>25</v>
@@ -2392,13 +2443,13 @@
         <v>0.05</v>
       </c>
       <c r="R18" s="11">
-        <v>0</v>
+        <v>78.75</v>
       </c>
       <c r="S18" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T18" s="11">
-        <v>0</v>
+        <v>157.11000000000001</v>
       </c>
       <c r="U18" s="11">
         <v>1810.86</v>
@@ -2410,8 +2461,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>24345</v>
       </c>
@@ -2432,7 +2486,7 @@
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="11">
-        <v>1810.86</v>
+        <v>1575</v>
       </c>
       <c r="K19" s="12" t="s">
         <v>25</v>
@@ -2456,13 +2510,13 @@
         <v>0.05</v>
       </c>
       <c r="R19" s="11">
-        <v>0</v>
+        <v>78.75</v>
       </c>
       <c r="S19" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T19" s="11">
-        <v>0</v>
+        <v>157.11000000000001</v>
       </c>
       <c r="U19" s="11">
         <v>1810.86</v>
@@ -2474,8 +2528,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>24346</v>
       </c>
@@ -2496,7 +2553,7 @@
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="11">
-        <v>1106.6400000000001</v>
+        <v>962.5</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>25</v>
@@ -2520,13 +2577,13 @@
         <v>0.05</v>
       </c>
       <c r="R20" s="11">
-        <v>0</v>
+        <v>48.13</v>
       </c>
       <c r="S20" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T20" s="11">
-        <v>0</v>
+        <v>96.01</v>
       </c>
       <c r="U20" s="11">
         <v>1106.6400000000001</v>
@@ -2538,8 +2595,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>24347</v>
       </c>
@@ -2560,7 +2620,7 @@
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
       <c r="J21" s="11">
-        <v>1106.6400000000001</v>
+        <v>962.5</v>
       </c>
       <c r="K21" s="12" t="s">
         <v>25</v>
@@ -2584,13 +2644,13 @@
         <v>0.05</v>
       </c>
       <c r="R21" s="11">
-        <v>0</v>
+        <v>48.13</v>
       </c>
       <c r="S21" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T21" s="11">
-        <v>0</v>
+        <v>96.01</v>
       </c>
       <c r="U21" s="11">
         <v>1106.6400000000001</v>
@@ -2602,8 +2662,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>24348</v>
       </c>
@@ -2624,7 +2687,7 @@
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="11">
-        <v>1106.6400000000001</v>
+        <v>962.5</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>25</v>
@@ -2648,13 +2711,13 @@
         <v>0.05</v>
       </c>
       <c r="R22" s="11">
-        <v>0</v>
+        <v>48.13</v>
       </c>
       <c r="S22" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T22" s="11">
-        <v>0</v>
+        <v>96.01</v>
       </c>
       <c r="U22" s="11">
         <v>1106.6400000000001</v>
@@ -2666,8 +2729,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>24349</v>
       </c>
@@ -2688,7 +2754,7 @@
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
       <c r="J23" s="11">
-        <v>1106.6400000000001</v>
+        <v>962.5</v>
       </c>
       <c r="K23" s="12" t="s">
         <v>25</v>
@@ -2712,13 +2778,13 @@
         <v>0.05</v>
       </c>
       <c r="R23" s="11">
-        <v>0</v>
+        <v>48.13</v>
       </c>
       <c r="S23" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T23" s="11">
-        <v>0</v>
+        <v>96.01</v>
       </c>
       <c r="U23" s="11">
         <v>1106.6400000000001</v>
@@ -2730,8 +2796,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>24351</v>
       </c>
@@ -2752,7 +2821,7 @@
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
       <c r="J24" s="11">
-        <v>1106.6400000000001</v>
+        <v>962.5</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>25</v>
@@ -2776,13 +2845,13 @@
         <v>0.05</v>
       </c>
       <c r="R24" s="11">
-        <v>0</v>
+        <v>48.13</v>
       </c>
       <c r="S24" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T24" s="11">
-        <v>0</v>
+        <v>96.01</v>
       </c>
       <c r="U24" s="11">
         <v>1106.6400000000001</v>
@@ -2794,8 +2863,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24352</v>
       </c>
@@ -2816,7 +2888,7 @@
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
       <c r="J25" s="11">
-        <v>1106.6400000000001</v>
+        <v>962.5</v>
       </c>
       <c r="K25" s="12" t="s">
         <v>25</v>
@@ -2840,13 +2912,13 @@
         <v>0.05</v>
       </c>
       <c r="R25" s="11">
-        <v>0</v>
+        <v>48.13</v>
       </c>
       <c r="S25" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T25" s="11">
-        <v>0</v>
+        <v>96.01</v>
       </c>
       <c r="U25" s="11">
         <v>1106.6400000000001</v>
@@ -2858,8 +2930,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>24353</v>
       </c>
@@ -2880,7 +2955,7 @@
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="11">
-        <v>1106.6400000000001</v>
+        <v>962.5</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>25</v>
@@ -2904,13 +2979,13 @@
         <v>0.05</v>
       </c>
       <c r="R26" s="11">
-        <v>0</v>
+        <v>48.13</v>
       </c>
       <c r="S26" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T26" s="11">
-        <v>0</v>
+        <v>96.01</v>
       </c>
       <c r="U26" s="11">
         <v>1106.6400000000001</v>
@@ -2922,8 +2997,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>24354</v>
       </c>
@@ -2944,7 +3022,7 @@
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="11">
-        <v>1106.6400000000001</v>
+        <v>962.5</v>
       </c>
       <c r="K27" s="12" t="s">
         <v>25</v>
@@ -2968,13 +3046,13 @@
         <v>0.05</v>
       </c>
       <c r="R27" s="11">
-        <v>0</v>
+        <v>48.13</v>
       </c>
       <c r="S27" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T27" s="11">
-        <v>0</v>
+        <v>96.01</v>
       </c>
       <c r="U27" s="11">
         <v>1106.6400000000001</v>
@@ -2986,8 +3064,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>24355</v>
       </c>
@@ -3008,7 +3089,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="11">
-        <v>1106.6400000000001</v>
+        <v>962.5</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>25</v>
@@ -3032,13 +3113,13 @@
         <v>0.05</v>
       </c>
       <c r="R28" s="11">
-        <v>0</v>
+        <v>48.13</v>
       </c>
       <c r="S28" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T28" s="11">
-        <v>0</v>
+        <v>96.01</v>
       </c>
       <c r="U28" s="11">
         <v>1106.6400000000001</v>
@@ -3050,8 +3131,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>24356</v>
       </c>
@@ -3072,7 +3156,7 @@
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
       <c r="J29" s="11">
-        <v>1106.6400000000001</v>
+        <v>962.5</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>25</v>
@@ -3096,13 +3180,13 @@
         <v>0.05</v>
       </c>
       <c r="R29" s="11">
-        <v>0</v>
+        <v>48.13</v>
       </c>
       <c r="S29" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T29" s="11">
-        <v>0</v>
+        <v>96.01</v>
       </c>
       <c r="U29" s="11">
         <v>1106.6400000000001</v>
@@ -3114,8 +3198,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>24357</v>
       </c>
@@ -3136,7 +3223,7 @@
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
       <c r="J30" s="11">
-        <v>5633.78</v>
+        <v>4900</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>25</v>
@@ -3160,13 +3247,13 @@
         <v>0.05</v>
       </c>
       <c r="R30" s="11">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="S30" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T30" s="11">
-        <v>0</v>
+        <v>488.78</v>
       </c>
       <c r="U30" s="11">
         <v>5633.78</v>
@@ -3178,8 +3265,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>24359</v>
       </c>
@@ -3200,7 +3290,7 @@
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="11">
-        <v>16700.12</v>
+        <v>14525</v>
       </c>
       <c r="K31" s="12" t="s">
         <v>25</v>
@@ -3224,13 +3314,13 @@
         <v>0.05</v>
       </c>
       <c r="R31" s="11">
-        <v>0</v>
+        <v>726.25</v>
       </c>
       <c r="S31" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T31" s="11">
-        <v>0</v>
+        <v>1448.87</v>
       </c>
       <c r="U31" s="11">
         <v>16700.12</v>
@@ -3242,8 +3332,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X31" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>24361</v>
       </c>
@@ -3264,7 +3357,7 @@
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
       <c r="J32" s="11">
-        <v>8450.66</v>
+        <v>7000</v>
       </c>
       <c r="K32" s="12" t="s">
         <v>25</v>
@@ -3276,7 +3369,7 @@
         <v>26</v>
       </c>
       <c r="N32" s="11">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="O32" s="10" t="s">
         <v>27</v>
@@ -3288,13 +3381,13 @@
         <v>0.05</v>
       </c>
       <c r="R32" s="11">
-        <v>0</v>
+        <v>367.5</v>
       </c>
       <c r="S32" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T32" s="11">
-        <v>0</v>
+        <v>733.16</v>
       </c>
       <c r="U32" s="11">
         <v>8450.66</v>
@@ -3306,8 +3399,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X32" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>24363</v>
       </c>
@@ -3328,7 +3424,7 @@
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
       <c r="J33" s="11">
-        <v>2515.08</v>
+        <v>2187.5</v>
       </c>
       <c r="K33" s="12" t="s">
         <v>25</v>
@@ -3352,13 +3448,13 @@
         <v>0.05</v>
       </c>
       <c r="R33" s="11">
-        <v>0</v>
+        <v>109.38</v>
       </c>
       <c r="S33" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T33" s="11">
-        <v>0</v>
+        <v>218.2</v>
       </c>
       <c r="U33" s="11">
         <v>2515.08</v>
@@ -3370,8 +3466,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X33" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>24370</v>
       </c>
@@ -3392,7 +3491,7 @@
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
       <c r="J34" s="11">
-        <v>402.41</v>
+        <v>350</v>
       </c>
       <c r="K34" s="12" t="s">
         <v>25</v>
@@ -3416,13 +3515,13 @@
         <v>0.05</v>
       </c>
       <c r="R34" s="11">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="S34" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T34" s="11">
-        <v>0</v>
+        <v>34.909999999999997</v>
       </c>
       <c r="U34" s="11">
         <v>402.41</v>
@@ -3434,8 +3533,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X34" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>24371</v>
       </c>
@@ -3456,7 +3558,7 @@
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
       <c r="J35" s="11">
-        <v>603.62</v>
+        <v>525</v>
       </c>
       <c r="K35" s="12" t="s">
         <v>25</v>
@@ -3480,13 +3582,13 @@
         <v>0.05</v>
       </c>
       <c r="R35" s="11">
-        <v>0</v>
+        <v>26.25</v>
       </c>
       <c r="S35" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T35" s="11">
-        <v>0</v>
+        <v>52.37</v>
       </c>
       <c r="U35" s="11">
         <v>603.62</v>
@@ -3498,8 +3600,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X35" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>24372</v>
       </c>
@@ -3520,7 +3625,7 @@
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
       <c r="J36" s="11">
-        <v>11871.17</v>
+        <v>10325</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>25</v>
@@ -3544,13 +3649,13 @@
         <v>0.05</v>
       </c>
       <c r="R36" s="11">
-        <v>0</v>
+        <v>516.25</v>
       </c>
       <c r="S36" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T36" s="11">
-        <v>0</v>
+        <v>1029.92</v>
       </c>
       <c r="U36" s="11">
         <v>11871.17</v>
@@ -3562,8 +3667,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X36" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>24373</v>
       </c>
@@ -3584,7 +3692,7 @@
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
       <c r="J37" s="11">
-        <v>503.02</v>
+        <v>437.5</v>
       </c>
       <c r="K37" s="12" t="s">
         <v>25</v>
@@ -3608,13 +3716,13 @@
         <v>0.05</v>
       </c>
       <c r="R37" s="11">
-        <v>0</v>
+        <v>21.88</v>
       </c>
       <c r="S37" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T37" s="11">
-        <v>0</v>
+        <v>43.64</v>
       </c>
       <c r="U37" s="11">
         <v>503.02</v>
@@ -3626,8 +3734,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X37" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>24374</v>
       </c>
@@ -3648,7 +3759,7 @@
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
       <c r="J38" s="11">
-        <v>2816.89</v>
+        <v>2450</v>
       </c>
       <c r="K38" s="12" t="s">
         <v>25</v>
@@ -3672,13 +3783,13 @@
         <v>0.05</v>
       </c>
       <c r="R38" s="11">
-        <v>0</v>
+        <v>122.5</v>
       </c>
       <c r="S38" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T38" s="11">
-        <v>0</v>
+        <v>244.39</v>
       </c>
       <c r="U38" s="11">
         <v>2816.89</v>
@@ -3690,8 +3801,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X38" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>24375</v>
       </c>
@@ -3712,7 +3826,7 @@
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
       <c r="J39" s="11">
-        <v>1192.8699999999999</v>
+        <v>1037.5</v>
       </c>
       <c r="K39" s="12" t="s">
         <v>25</v>
@@ -3736,13 +3850,13 @@
         <v>0.05</v>
       </c>
       <c r="R39" s="11">
-        <v>0</v>
+        <v>51.88</v>
       </c>
       <c r="S39" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T39" s="11">
-        <v>0</v>
+        <v>103.49</v>
       </c>
       <c r="U39" s="11">
         <v>1192.8699999999999</v>
@@ -3754,8 +3868,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X39" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>24378</v>
       </c>
@@ -3776,7 +3893,7 @@
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
       <c r="J40" s="11">
-        <v>201.21</v>
+        <v>175</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>25</v>
@@ -3800,13 +3917,13 @@
         <v>0.05</v>
       </c>
       <c r="R40" s="11">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="S40" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T40" s="11">
-        <v>0</v>
+        <v>17.46</v>
       </c>
       <c r="U40" s="11">
         <v>201.21</v>
@@ -3818,8 +3935,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X40" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>24379</v>
       </c>
@@ -3840,7 +3960,7 @@
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
       <c r="J41" s="11">
-        <v>2112.67</v>
+        <v>1837.5</v>
       </c>
       <c r="K41" s="12" t="s">
         <v>25</v>
@@ -3864,13 +3984,13 @@
         <v>0.05</v>
       </c>
       <c r="R41" s="11">
-        <v>0</v>
+        <v>91.88</v>
       </c>
       <c r="S41" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T41" s="11">
-        <v>0</v>
+        <v>183.29</v>
       </c>
       <c r="U41" s="11">
         <v>2112.67</v>
@@ -3882,8 +4002,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X41" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>24381</v>
       </c>
@@ -3904,7 +4027,7 @@
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
       <c r="J42" s="11">
-        <v>201.21</v>
+        <v>175</v>
       </c>
       <c r="K42" s="12" t="s">
         <v>25</v>
@@ -3928,13 +4051,13 @@
         <v>0.05</v>
       </c>
       <c r="R42" s="11">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="S42" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T42" s="11">
-        <v>0</v>
+        <v>17.46</v>
       </c>
       <c r="U42" s="11">
         <v>201.21</v>
@@ -3946,8 +4069,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X42" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>24382</v>
       </c>
@@ -3968,7 +4094,7 @@
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
       <c r="J43" s="11">
-        <v>1307.8499999999999</v>
+        <v>1137.5</v>
       </c>
       <c r="K43" s="12" t="s">
         <v>25</v>
@@ -3992,13 +4118,13 @@
         <v>0.05</v>
       </c>
       <c r="R43" s="11">
-        <v>0</v>
+        <v>56.88</v>
       </c>
       <c r="S43" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T43" s="11">
-        <v>0</v>
+        <v>113.47</v>
       </c>
       <c r="U43" s="11">
         <v>1307.8499999999999</v>
@@ -4010,8 +4136,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X43" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>24384</v>
       </c>
@@ -4032,7 +4161,7 @@
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="11">
-        <v>15432.52</v>
+        <v>13422.5</v>
       </c>
       <c r="K44" s="12" t="s">
         <v>25</v>
@@ -4056,13 +4185,13 @@
         <v>0.05</v>
       </c>
       <c r="R44" s="11">
-        <v>0</v>
+        <v>671.13</v>
       </c>
       <c r="S44" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T44" s="11">
-        <v>0</v>
+        <v>1338.89</v>
       </c>
       <c r="U44" s="11">
         <v>15432.52</v>
@@ -4074,8 +4203,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X44" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>24385</v>
       </c>
@@ -4096,7 +4228,7 @@
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="11">
-        <v>9959.7099999999991</v>
+        <v>8662.5</v>
       </c>
       <c r="K45" s="12" t="s">
         <v>25</v>
@@ -4120,13 +4252,13 @@
         <v>0.05</v>
       </c>
       <c r="R45" s="11">
-        <v>0</v>
+        <v>433.13</v>
       </c>
       <c r="S45" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T45" s="11">
-        <v>0</v>
+        <v>864.08</v>
       </c>
       <c r="U45" s="11">
         <v>9959.7099999999991</v>
@@ -4138,8 +4270,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X45" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>24386</v>
       </c>
@@ -4160,7 +4295,7 @@
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="11">
-        <v>5533.18</v>
+        <v>4812.5</v>
       </c>
       <c r="K46" s="12" t="s">
         <v>25</v>
@@ -4184,13 +4319,13 @@
         <v>0.05</v>
       </c>
       <c r="R46" s="11">
-        <v>0</v>
+        <v>240.63</v>
       </c>
       <c r="S46" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T46" s="11">
-        <v>0</v>
+        <v>480.05</v>
       </c>
       <c r="U46" s="11">
         <v>5533.18</v>
@@ -4202,8 +4337,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X46" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>24388</v>
       </c>
@@ -4224,7 +4362,7 @@
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
       <c r="J47" s="11">
-        <v>3018.09</v>
+        <v>2625</v>
       </c>
       <c r="K47" s="12" t="s">
         <v>25</v>
@@ -4248,13 +4386,13 @@
         <v>0.05</v>
       </c>
       <c r="R47" s="11">
-        <v>0</v>
+        <v>131.25</v>
       </c>
       <c r="S47" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T47" s="11">
-        <v>0</v>
+        <v>261.83999999999997</v>
       </c>
       <c r="U47" s="11">
         <v>3018.09</v>
@@ -4266,8 +4404,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X47" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>24389</v>
       </c>
@@ -4288,7 +4429,7 @@
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
       <c r="J48" s="11">
-        <v>201.21</v>
+        <v>175</v>
       </c>
       <c r="K48" s="12" t="s">
         <v>25</v>
@@ -4312,13 +4453,13 @@
         <v>0.05</v>
       </c>
       <c r="R48" s="11">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="S48" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T48" s="11">
-        <v>0</v>
+        <v>17.46</v>
       </c>
       <c r="U48" s="11">
         <v>201.21</v>
@@ -4330,8 +4471,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X48" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>24390</v>
       </c>
@@ -4352,7 +4496,7 @@
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
       <c r="J49" s="11">
-        <v>2313.88</v>
+        <v>2012.5</v>
       </c>
       <c r="K49" s="12" t="s">
         <v>25</v>
@@ -4376,13 +4520,13 @@
         <v>0.05</v>
       </c>
       <c r="R49" s="11">
-        <v>0</v>
+        <v>100.63</v>
       </c>
       <c r="S49" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T49" s="11">
-        <v>0</v>
+        <v>200.75</v>
       </c>
       <c r="U49" s="11">
         <v>2313.88</v>
@@ -4394,8 +4538,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X49" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>24391</v>
       </c>
@@ -4416,7 +4563,7 @@
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
       <c r="J50" s="11">
-        <v>201.21</v>
+        <v>175</v>
       </c>
       <c r="K50" s="12" t="s">
         <v>25</v>
@@ -4440,13 +4587,13 @@
         <v>0.05</v>
       </c>
       <c r="R50" s="11">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="S50" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T50" s="11">
-        <v>0</v>
+        <v>17.46</v>
       </c>
       <c r="U50" s="11">
         <v>201.21</v>
@@ -4458,8 +4605,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X50" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>24393</v>
       </c>
@@ -4469,18 +4619,18 @@
       <c r="C51" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>80</v>
+      <c r="D51" s="9">
+        <v>156</v>
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
       <c r="J51" s="11">
-        <v>1810.86</v>
+        <v>1575</v>
       </c>
       <c r="K51" s="12" t="s">
         <v>25</v>
@@ -4504,13 +4654,13 @@
         <v>0.05</v>
       </c>
       <c r="R51" s="11">
-        <v>0</v>
+        <v>78.75</v>
       </c>
       <c r="S51" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T51" s="11">
-        <v>0</v>
+        <v>157.11000000000001</v>
       </c>
       <c r="U51" s="11">
         <v>1810.86</v>
@@ -4522,8 +4672,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X51" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>24395</v>
       </c>
@@ -4534,29 +4687,29 @@
         <v>22</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
       <c r="J52" s="11">
-        <v>5188.25</v>
+        <v>4112.5</v>
       </c>
       <c r="K52" s="12" t="s">
         <v>25</v>
       </c>
       <c r="L52" s="11">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M52" s="10" t="s">
         <v>26</v>
       </c>
       <c r="N52" s="11">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="O52" s="10" t="s">
         <v>27</v>
@@ -4568,13 +4721,13 @@
         <v>0.05</v>
       </c>
       <c r="R52" s="11">
-        <v>0</v>
+        <v>225.63</v>
       </c>
       <c r="S52" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T52" s="11">
-        <v>0</v>
+        <v>450.12</v>
       </c>
       <c r="U52" s="11">
         <v>5188.25</v>
@@ -4586,8 +4739,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X52" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>24396</v>
       </c>
@@ -4598,17 +4754,17 @@
         <v>22</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
       <c r="J53" s="11">
-        <v>3822.92</v>
+        <v>3325</v>
       </c>
       <c r="K53" s="12" t="s">
         <v>25</v>
@@ -4632,13 +4788,13 @@
         <v>0.05</v>
       </c>
       <c r="R53" s="11">
-        <v>0</v>
+        <v>166.25</v>
       </c>
       <c r="S53" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T53" s="11">
-        <v>0</v>
+        <v>331.67</v>
       </c>
       <c r="U53" s="11">
         <v>3822.92</v>
@@ -4650,8 +4806,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X53" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>24398</v>
       </c>
@@ -4662,17 +4821,17 @@
         <v>22</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
       <c r="J54" s="11">
-        <v>1408.44</v>
+        <v>1225</v>
       </c>
       <c r="K54" s="12" t="s">
         <v>25</v>
@@ -4696,13 +4855,13 @@
         <v>0.05</v>
       </c>
       <c r="R54" s="11">
-        <v>0</v>
+        <v>61.25</v>
       </c>
       <c r="S54" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T54" s="11">
-        <v>0</v>
+        <v>122.19</v>
       </c>
       <c r="U54" s="11">
         <v>1408.44</v>
@@ -4714,8 +4873,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X54" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>24399</v>
       </c>
@@ -4726,17 +4888,17 @@
         <v>22</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
       <c r="J55" s="11">
-        <v>301.81</v>
+        <v>262.5</v>
       </c>
       <c r="K55" s="12" t="s">
         <v>25</v>
@@ -4760,13 +4922,13 @@
         <v>0.05</v>
       </c>
       <c r="R55" s="11">
-        <v>0</v>
+        <v>13.13</v>
       </c>
       <c r="S55" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T55" s="11">
-        <v>0</v>
+        <v>26.18</v>
       </c>
       <c r="U55" s="11">
         <v>301.81</v>
@@ -4778,8 +4940,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X55" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>24400</v>
       </c>
@@ -4790,17 +4955,17 @@
         <v>22</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
       <c r="J56" s="11">
-        <v>301.81</v>
+        <v>262.5</v>
       </c>
       <c r="K56" s="12" t="s">
         <v>25</v>
@@ -4824,13 +4989,13 @@
         <v>0.05</v>
       </c>
       <c r="R56" s="11">
-        <v>0</v>
+        <v>13.13</v>
       </c>
       <c r="S56" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T56" s="11">
-        <v>0</v>
+        <v>26.18</v>
       </c>
       <c r="U56" s="11">
         <v>301.81</v>
@@ -4842,8 +5007,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X56" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>24401</v>
       </c>
@@ -4864,7 +5032,7 @@
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
       <c r="J57" s="11">
-        <v>3621.71</v>
+        <v>3150</v>
       </c>
       <c r="K57" s="12" t="s">
         <v>25</v>
@@ -4888,13 +5056,13 @@
         <v>0.05</v>
       </c>
       <c r="R57" s="11">
-        <v>0</v>
+        <v>157.5</v>
       </c>
       <c r="S57" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T57" s="11">
-        <v>0</v>
+        <v>314.20999999999998</v>
       </c>
       <c r="U57" s="11">
         <v>3621.71</v>
@@ -4906,8 +5074,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X57" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>24402</v>
       </c>
@@ -4928,7 +5099,7 @@
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
       <c r="J58" s="11">
-        <v>1106.6400000000001</v>
+        <v>962.5</v>
       </c>
       <c r="K58" s="12" t="s">
         <v>25</v>
@@ -4952,13 +5123,13 @@
         <v>0.05</v>
       </c>
       <c r="R58" s="11">
-        <v>0</v>
+        <v>48.13</v>
       </c>
       <c r="S58" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T58" s="11">
-        <v>0</v>
+        <v>96.01</v>
       </c>
       <c r="U58" s="11">
         <v>1106.6400000000001</v>
@@ -4970,8 +5141,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X58" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>24403</v>
       </c>
@@ -4992,7 +5166,7 @@
       <c r="H59" s="10"/>
       <c r="I59" s="10"/>
       <c r="J59" s="11">
-        <v>1106.6400000000001</v>
+        <v>962.5</v>
       </c>
       <c r="K59" s="12" t="s">
         <v>25</v>
@@ -5016,13 +5190,13 @@
         <v>0.05</v>
       </c>
       <c r="R59" s="11">
-        <v>0</v>
+        <v>48.13</v>
       </c>
       <c r="S59" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T59" s="11">
-        <v>0</v>
+        <v>96.01</v>
       </c>
       <c r="U59" s="11">
         <v>1106.6400000000001</v>
@@ -5034,8 +5208,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X59" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>24404</v>
       </c>
@@ -5056,7 +5233,7 @@
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
       <c r="J60" s="11">
-        <v>1106.6400000000001</v>
+        <v>962.5</v>
       </c>
       <c r="K60" s="12" t="s">
         <v>25</v>
@@ -5080,13 +5257,13 @@
         <v>0.05</v>
       </c>
       <c r="R60" s="11">
-        <v>0</v>
+        <v>48.13</v>
       </c>
       <c r="S60" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T60" s="11">
-        <v>0</v>
+        <v>96.01</v>
       </c>
       <c r="U60" s="11">
         <v>1106.6400000000001</v>
@@ -5098,8 +5275,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X60" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>24405</v>
       </c>
@@ -5110,17 +5290,17 @@
         <v>22</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="10"/>
       <c r="F61" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
       <c r="J61" s="11">
-        <v>804.83</v>
+        <v>700</v>
       </c>
       <c r="K61" s="12" t="s">
         <v>25</v>
@@ -5144,13 +5324,13 @@
         <v>0.05</v>
       </c>
       <c r="R61" s="11">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="S61" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T61" s="11">
-        <v>0</v>
+        <v>69.83</v>
       </c>
       <c r="U61" s="11">
         <v>804.83</v>
@@ -5162,8 +5342,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X61" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>24406</v>
       </c>
@@ -5174,17 +5357,17 @@
         <v>22</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
       <c r="J62" s="11">
-        <v>4325.9399999999996</v>
+        <v>3762.5</v>
       </c>
       <c r="K62" s="12" t="s">
         <v>25</v>
@@ -5208,13 +5391,13 @@
         <v>0.05</v>
       </c>
       <c r="R62" s="11">
-        <v>0</v>
+        <v>188.13</v>
       </c>
       <c r="S62" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T62" s="11">
-        <v>0</v>
+        <v>375.31</v>
       </c>
       <c r="U62" s="11">
         <v>4325.9399999999996</v>
@@ -5226,8 +5409,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X62" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>24408</v>
       </c>
@@ -5238,17 +5424,17 @@
         <v>22</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
       <c r="J63" s="11">
-        <v>804.83</v>
+        <v>700</v>
       </c>
       <c r="K63" s="12" t="s">
         <v>25</v>
@@ -5272,13 +5458,13 @@
         <v>0.05</v>
       </c>
       <c r="R63" s="11">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="S63" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T63" s="11">
-        <v>0</v>
+        <v>69.83</v>
       </c>
       <c r="U63" s="11">
         <v>804.83</v>
@@ -5290,8 +5476,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X63" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>24410</v>
       </c>
@@ -5302,23 +5491,23 @@
         <v>22</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
       <c r="J64" s="11">
-        <v>3578.6</v>
+        <v>3062.5</v>
       </c>
       <c r="K64" s="12" t="s">
         <v>25</v>
       </c>
       <c r="L64" s="11">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M64" s="10" t="s">
         <v>26</v>
@@ -5336,13 +5525,13 @@
         <v>0.05</v>
       </c>
       <c r="R64" s="11">
-        <v>0</v>
+        <v>155.63</v>
       </c>
       <c r="S64" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T64" s="11">
-        <v>0</v>
+        <v>310.47000000000003</v>
       </c>
       <c r="U64" s="11">
         <v>3578.6</v>
@@ -5354,8 +5543,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X64" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>24411</v>
       </c>
@@ -5376,7 +5568,7 @@
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
       <c r="J65" s="11">
-        <v>2263.5700000000002</v>
+        <v>1968.75</v>
       </c>
       <c r="K65" s="12" t="s">
         <v>25</v>
@@ -5400,13 +5592,13 @@
         <v>0.05</v>
       </c>
       <c r="R65" s="11">
-        <v>0</v>
+        <v>98.44</v>
       </c>
       <c r="S65" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T65" s="11">
-        <v>0</v>
+        <v>196.38</v>
       </c>
       <c r="U65" s="11">
         <v>2263.5700000000002</v>
@@ -5418,8 +5610,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X65" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>24412</v>
       </c>
@@ -5440,7 +5635,7 @@
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
       <c r="J66" s="11">
-        <v>2263.5700000000002</v>
+        <v>1968.75</v>
       </c>
       <c r="K66" s="12" t="s">
         <v>25</v>
@@ -5464,13 +5659,13 @@
         <v>0.05</v>
       </c>
       <c r="R66" s="11">
-        <v>0</v>
+        <v>98.44</v>
       </c>
       <c r="S66" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T66" s="11">
-        <v>0</v>
+        <v>196.38</v>
       </c>
       <c r="U66" s="11">
         <v>2263.5700000000002</v>
@@ -5482,8 +5677,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X66" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>24413</v>
       </c>
@@ -5494,23 +5692,23 @@
         <v>22</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
       <c r="J67" s="11">
-        <v>7976.4</v>
+        <v>6912.5</v>
       </c>
       <c r="K67" s="12" t="s">
         <v>25</v>
       </c>
       <c r="L67" s="11">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M67" s="10" t="s">
         <v>26</v>
@@ -5528,13 +5726,13 @@
         <v>0.05</v>
       </c>
       <c r="R67" s="11">
-        <v>0</v>
+        <v>346.88</v>
       </c>
       <c r="S67" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T67" s="11">
-        <v>0</v>
+        <v>692.02</v>
       </c>
       <c r="U67" s="11">
         <v>7976.4</v>
@@ -5546,8 +5744,11 @@
         <f t="shared" ref="W67:W120" si="1">U67-(J67+L67+N67+P67+R67+T67)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X67" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>24415</v>
       </c>
@@ -5558,17 +5759,17 @@
         <v>22</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
       <c r="J68" s="11">
-        <v>5432.57</v>
+        <v>4725</v>
       </c>
       <c r="K68" s="12" t="s">
         <v>25</v>
@@ -5592,13 +5793,13 @@
         <v>0.05</v>
       </c>
       <c r="R68" s="11">
-        <v>0</v>
+        <v>236.25</v>
       </c>
       <c r="S68" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T68" s="11">
-        <v>0</v>
+        <v>471.32</v>
       </c>
       <c r="U68" s="11">
         <v>5432.57</v>
@@ -5610,8 +5811,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X68" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>24416</v>
       </c>
@@ -5622,17 +5826,17 @@
         <v>22</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
       <c r="J69" s="11">
-        <v>563.38</v>
+        <v>490</v>
       </c>
       <c r="K69" s="12" t="s">
         <v>25</v>
@@ -5656,13 +5860,13 @@
         <v>0.05</v>
       </c>
       <c r="R69" s="11">
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="S69" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T69" s="11">
-        <v>0</v>
+        <v>48.88</v>
       </c>
       <c r="U69" s="11">
         <v>563.38</v>
@@ -5674,8 +5878,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X69" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>24417</v>
       </c>
@@ -5686,17 +5893,17 @@
         <v>22</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
       <c r="I70" s="10"/>
       <c r="J70" s="11">
-        <v>201.21</v>
+        <v>175</v>
       </c>
       <c r="K70" s="12" t="s">
         <v>25</v>
@@ -5720,13 +5927,13 @@
         <v>0.05</v>
       </c>
       <c r="R70" s="11">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="S70" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T70" s="11">
-        <v>0</v>
+        <v>17.46</v>
       </c>
       <c r="U70" s="11">
         <v>201.21</v>
@@ -5738,8 +5945,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X70" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>24419</v>
       </c>
@@ -5750,17 +5960,17 @@
         <v>22</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E71" s="10"/>
       <c r="F71" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
       <c r="I71" s="10"/>
       <c r="J71" s="11">
-        <v>18812.79</v>
+        <v>16362.5</v>
       </c>
       <c r="K71" s="12" t="s">
         <v>25</v>
@@ -5784,13 +5994,13 @@
         <v>0.05</v>
       </c>
       <c r="R71" s="11">
-        <v>0</v>
+        <v>818.13</v>
       </c>
       <c r="S71" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T71" s="11">
-        <v>0</v>
+        <v>1632.16</v>
       </c>
       <c r="U71" s="11">
         <v>18812.79</v>
@@ -5802,8 +6012,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X71" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>24420</v>
       </c>
@@ -5814,17 +6027,17 @@
         <v>22</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E72" s="10"/>
       <c r="F72" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
       <c r="J72" s="11">
-        <v>11368.16</v>
+        <v>9887.5</v>
       </c>
       <c r="K72" s="12" t="s">
         <v>25</v>
@@ -5848,13 +6061,13 @@
         <v>0.05</v>
       </c>
       <c r="R72" s="11">
-        <v>0</v>
+        <v>494.38</v>
       </c>
       <c r="S72" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T72" s="11">
-        <v>0</v>
+        <v>986.28</v>
       </c>
       <c r="U72" s="11">
         <v>11368.16</v>
@@ -5866,8 +6079,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X72" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>24421</v>
       </c>
@@ -5878,17 +6094,17 @@
         <v>22</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E73" s="10"/>
       <c r="F73" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
       <c r="J73" s="11">
-        <v>2213.27</v>
+        <v>1925</v>
       </c>
       <c r="K73" s="12" t="s">
         <v>25</v>
@@ -5912,13 +6128,13 @@
         <v>0.05</v>
       </c>
       <c r="R73" s="11">
-        <v>0</v>
+        <v>96.25</v>
       </c>
       <c r="S73" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T73" s="11">
-        <v>0</v>
+        <v>192.02</v>
       </c>
       <c r="U73" s="11">
         <v>2213.27</v>
@@ -5930,8 +6146,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X73" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>24422</v>
       </c>
@@ -5942,17 +6161,17 @@
         <v>22</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E74" s="10"/>
       <c r="F74" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
       <c r="J74" s="11">
-        <v>15895.29</v>
+        <v>13825</v>
       </c>
       <c r="K74" s="12" t="s">
         <v>25</v>
@@ -5976,13 +6195,13 @@
         <v>0.05</v>
       </c>
       <c r="R74" s="11">
-        <v>0</v>
+        <v>691.25</v>
       </c>
       <c r="S74" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T74" s="11">
-        <v>0</v>
+        <v>1379.04</v>
       </c>
       <c r="U74" s="11">
         <v>15895.29</v>
@@ -5994,8 +6213,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X74" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>24423</v>
       </c>
@@ -6006,17 +6228,17 @@
         <v>22</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
       <c r="I75" s="10"/>
       <c r="J75" s="11">
-        <v>1106.6400000000001</v>
+        <v>962.5</v>
       </c>
       <c r="K75" s="12" t="s">
         <v>25</v>
@@ -6040,13 +6262,13 @@
         <v>0.05</v>
       </c>
       <c r="R75" s="11">
-        <v>0</v>
+        <v>48.13</v>
       </c>
       <c r="S75" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T75" s="11">
-        <v>0</v>
+        <v>96.01</v>
       </c>
       <c r="U75" s="11">
         <v>1106.6400000000001</v>
@@ -6058,8 +6280,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X75" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>24424</v>
       </c>
@@ -6070,17 +6295,17 @@
         <v>22</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E76" s="10"/>
       <c r="F76" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
       <c r="I76" s="10"/>
       <c r="J76" s="11">
-        <v>603.62</v>
+        <v>525</v>
       </c>
       <c r="K76" s="12" t="s">
         <v>25</v>
@@ -6104,13 +6329,13 @@
         <v>0.05</v>
       </c>
       <c r="R76" s="11">
-        <v>0</v>
+        <v>26.25</v>
       </c>
       <c r="S76" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T76" s="11">
-        <v>0</v>
+        <v>52.37</v>
       </c>
       <c r="U76" s="11">
         <v>603.62</v>
@@ -6122,8 +6347,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X76" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>24425</v>
       </c>
@@ -6134,17 +6362,17 @@
         <v>22</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E77" s="10"/>
       <c r="F77" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
       <c r="I77" s="10"/>
       <c r="J77" s="11">
-        <v>1207.24</v>
+        <v>1050</v>
       </c>
       <c r="K77" s="12" t="s">
         <v>25</v>
@@ -6168,13 +6396,13 @@
         <v>0.05</v>
       </c>
       <c r="R77" s="11">
-        <v>0</v>
+        <v>52.5</v>
       </c>
       <c r="S77" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T77" s="11">
-        <v>0</v>
+        <v>104.74</v>
       </c>
       <c r="U77" s="11">
         <v>1207.24</v>
@@ -6186,8 +6414,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X77" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>24426</v>
       </c>
@@ -6198,17 +6429,17 @@
         <v>22</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E78" s="10"/>
       <c r="F78" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
       <c r="I78" s="10"/>
       <c r="J78" s="11">
-        <v>1710.26</v>
+        <v>1487.5</v>
       </c>
       <c r="K78" s="12" t="s">
         <v>25</v>
@@ -6232,13 +6463,13 @@
         <v>0.05</v>
       </c>
       <c r="R78" s="11">
-        <v>0</v>
+        <v>74.38</v>
       </c>
       <c r="S78" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T78" s="11">
-        <v>0</v>
+        <v>148.38</v>
       </c>
       <c r="U78" s="11">
         <v>1710.26</v>
@@ -6250,8 +6481,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X78" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>24427</v>
       </c>
@@ -6262,17 +6496,17 @@
         <v>22</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E79" s="10"/>
       <c r="F79" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
       <c r="I79" s="10"/>
       <c r="J79" s="11">
-        <v>6338</v>
+        <v>5512.5</v>
       </c>
       <c r="K79" s="12" t="s">
         <v>25</v>
@@ -6296,13 +6530,13 @@
         <v>0.05</v>
       </c>
       <c r="R79" s="11">
-        <v>0</v>
+        <v>275.63</v>
       </c>
       <c r="S79" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T79" s="11">
-        <v>0</v>
+        <v>549.87</v>
       </c>
       <c r="U79" s="11">
         <v>6338</v>
@@ -6314,8 +6548,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X79" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>24428</v>
       </c>
@@ -6326,23 +6563,23 @@
         <v>22</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E80" s="10"/>
       <c r="F80" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
       <c r="J80" s="11">
-        <v>11307.79</v>
+        <v>9625</v>
       </c>
       <c r="K80" s="12" t="s">
         <v>25</v>
       </c>
       <c r="L80" s="11">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="M80" s="10" t="s">
         <v>26</v>
@@ -6360,13 +6597,13 @@
         <v>0.05</v>
       </c>
       <c r="R80" s="11">
-        <v>0</v>
+        <v>491.75</v>
       </c>
       <c r="S80" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T80" s="11">
-        <v>0</v>
+        <v>981.04</v>
       </c>
       <c r="U80" s="11">
         <v>11307.79</v>
@@ -6378,8 +6615,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X80" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>24430</v>
       </c>
@@ -6390,17 +6630,17 @@
         <v>22</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
       <c r="I81" s="10"/>
       <c r="J81" s="11">
-        <v>2012.06</v>
+        <v>1750</v>
       </c>
       <c r="K81" s="12" t="s">
         <v>25</v>
@@ -6424,13 +6664,13 @@
         <v>0.05</v>
       </c>
       <c r="R81" s="11">
-        <v>0</v>
+        <v>87.5</v>
       </c>
       <c r="S81" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T81" s="11">
-        <v>0</v>
+        <v>174.56</v>
       </c>
       <c r="U81" s="11">
         <v>2012.06</v>
@@ -6442,8 +6682,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X81" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>24431</v>
       </c>
@@ -6454,17 +6697,17 @@
         <v>22</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E82" s="10"/>
       <c r="F82" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
       <c r="I82" s="10"/>
       <c r="J82" s="11">
-        <v>1609.65</v>
+        <v>1400</v>
       </c>
       <c r="K82" s="12" t="s">
         <v>25</v>
@@ -6488,13 +6731,13 @@
         <v>0.05</v>
       </c>
       <c r="R82" s="11">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="S82" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T82" s="11">
-        <v>0</v>
+        <v>139.65</v>
       </c>
       <c r="U82" s="11">
         <v>1609.65</v>
@@ -6506,8 +6749,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X82" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>24432</v>
       </c>
@@ -6518,17 +6764,17 @@
         <v>22</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
       <c r="I83" s="10"/>
       <c r="J83" s="11">
-        <v>9557.2999999999993</v>
+        <v>8312.5</v>
       </c>
       <c r="K83" s="12" t="s">
         <v>25</v>
@@ -6552,13 +6798,13 @@
         <v>0.05</v>
       </c>
       <c r="R83" s="11">
-        <v>0</v>
+        <v>415.63</v>
       </c>
       <c r="S83" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T83" s="11">
-        <v>0</v>
+        <v>829.17</v>
       </c>
       <c r="U83" s="11">
         <v>9557.2999999999993</v>
@@ -6570,8 +6816,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X83" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>24433</v>
       </c>
@@ -6582,17 +6831,17 @@
         <v>22</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E84" s="10"/>
       <c r="F84" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
       <c r="I84" s="10"/>
       <c r="J84" s="11">
-        <v>5030.16</v>
+        <v>4375</v>
       </c>
       <c r="K84" s="12" t="s">
         <v>25</v>
@@ -6616,13 +6865,13 @@
         <v>0.05</v>
       </c>
       <c r="R84" s="11">
-        <v>0</v>
+        <v>218.75</v>
       </c>
       <c r="S84" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T84" s="11">
-        <v>0</v>
+        <v>436.41</v>
       </c>
       <c r="U84" s="11">
         <v>5030.16</v>
@@ -6634,8 +6883,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X84" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>24434</v>
       </c>
@@ -6646,17 +6898,17 @@
         <v>22</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E85" s="10"/>
       <c r="F85" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
       <c r="I85" s="10"/>
       <c r="J85" s="11">
-        <v>5935.59</v>
+        <v>5162.5</v>
       </c>
       <c r="K85" s="12" t="s">
         <v>25</v>
@@ -6680,13 +6932,13 @@
         <v>0.05</v>
       </c>
       <c r="R85" s="11">
-        <v>0</v>
+        <v>258.13</v>
       </c>
       <c r="S85" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T85" s="11">
-        <v>0</v>
+        <v>514.96</v>
       </c>
       <c r="U85" s="11">
         <v>5935.59</v>
@@ -6698,8 +6950,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X85" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>24435</v>
       </c>
@@ -6710,23 +6965,23 @@
         <v>22</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E86" s="10"/>
       <c r="F86" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
       <c r="I86" s="10"/>
       <c r="J86" s="11">
-        <v>9586.0499999999993</v>
+        <v>8312.5</v>
       </c>
       <c r="K86" s="12" t="s">
         <v>25</v>
       </c>
       <c r="L86" s="11">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M86" s="10" t="s">
         <v>26</v>
@@ -6744,13 +6999,13 @@
         <v>0.05</v>
       </c>
       <c r="R86" s="11">
-        <v>0</v>
+        <v>416.88</v>
       </c>
       <c r="S86" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T86" s="11">
-        <v>0</v>
+        <v>831.67</v>
       </c>
       <c r="U86" s="11">
         <v>9586.0499999999993</v>
@@ -6762,8 +7017,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X86" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>24436</v>
       </c>
@@ -6774,17 +7032,17 @@
         <v>22</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E87" s="10"/>
       <c r="F87" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
       <c r="I87" s="10"/>
       <c r="J87" s="11">
-        <v>905.43</v>
+        <v>787.5</v>
       </c>
       <c r="K87" s="12" t="s">
         <v>25</v>
@@ -6808,13 +7066,13 @@
         <v>0.05</v>
       </c>
       <c r="R87" s="11">
-        <v>0</v>
+        <v>39.380000000000003</v>
       </c>
       <c r="S87" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T87" s="11">
-        <v>0</v>
+        <v>78.55</v>
       </c>
       <c r="U87" s="11">
         <v>905.43</v>
@@ -6826,8 +7084,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X87" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>24439</v>
       </c>
@@ -6838,17 +7099,17 @@
         <v>22</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E88" s="10"/>
       <c r="F88" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
       <c r="I88" s="10"/>
       <c r="J88" s="11">
-        <v>503.02</v>
+        <v>437.5</v>
       </c>
       <c r="K88" s="12" t="s">
         <v>25</v>
@@ -6872,13 +7133,13 @@
         <v>0.05</v>
       </c>
       <c r="R88" s="11">
-        <v>0</v>
+        <v>21.88</v>
       </c>
       <c r="S88" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T88" s="11">
-        <v>0</v>
+        <v>43.64</v>
       </c>
       <c r="U88" s="11">
         <v>503.02</v>
@@ -6890,8 +7151,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X88" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>24440</v>
       </c>
@@ -6902,17 +7166,17 @@
         <v>22</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E89" s="10"/>
       <c r="F89" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G89" s="10"/>
       <c r="H89" s="10"/>
       <c r="I89" s="10"/>
       <c r="J89" s="11">
-        <v>1509.05</v>
+        <v>1312.5</v>
       </c>
       <c r="K89" s="12" t="s">
         <v>25</v>
@@ -6936,13 +7200,13 @@
         <v>0.05</v>
       </c>
       <c r="R89" s="11">
-        <v>0</v>
+        <v>65.63</v>
       </c>
       <c r="S89" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T89" s="11">
-        <v>0</v>
+        <v>130.91999999999999</v>
       </c>
       <c r="U89" s="11">
         <v>1509.05</v>
@@ -6954,8 +7218,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X89" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>24441</v>
       </c>
@@ -6966,17 +7233,17 @@
         <v>22</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E90" s="10"/>
       <c r="F90" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G90" s="10"/>
       <c r="H90" s="10"/>
       <c r="I90" s="10"/>
       <c r="J90" s="11">
-        <v>503.02</v>
+        <v>437.5</v>
       </c>
       <c r="K90" s="12" t="s">
         <v>25</v>
@@ -7000,13 +7267,13 @@
         <v>0.05</v>
       </c>
       <c r="R90" s="11">
-        <v>0</v>
+        <v>21.88</v>
       </c>
       <c r="S90" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T90" s="11">
-        <v>0</v>
+        <v>43.64</v>
       </c>
       <c r="U90" s="11">
         <v>503.02</v>
@@ -7018,8 +7285,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X90" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>24443</v>
       </c>
@@ -7030,17 +7300,17 @@
         <v>22</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E91" s="10"/>
       <c r="F91" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G91" s="10"/>
       <c r="H91" s="10"/>
       <c r="I91" s="10"/>
       <c r="J91" s="11">
-        <v>301.81</v>
+        <v>262.5</v>
       </c>
       <c r="K91" s="12" t="s">
         <v>25</v>
@@ -7064,13 +7334,13 @@
         <v>0.05</v>
       </c>
       <c r="R91" s="11">
-        <v>0</v>
+        <v>13.13</v>
       </c>
       <c r="S91" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T91" s="11">
-        <v>0</v>
+        <v>26.18</v>
       </c>
       <c r="U91" s="11">
         <v>301.81</v>
@@ -7082,8 +7352,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X91" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <v>24444</v>
       </c>
@@ -7094,17 +7367,17 @@
         <v>22</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E92" s="10"/>
       <c r="F92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G92" s="10"/>
       <c r="H92" s="10"/>
       <c r="I92" s="10"/>
       <c r="J92" s="11">
-        <v>2313.88</v>
+        <v>2012.5</v>
       </c>
       <c r="K92" s="12" t="s">
         <v>25</v>
@@ -7128,13 +7401,13 @@
         <v>0.05</v>
       </c>
       <c r="R92" s="11">
-        <v>0</v>
+        <v>100.63</v>
       </c>
       <c r="S92" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T92" s="11">
-        <v>0</v>
+        <v>200.75</v>
       </c>
       <c r="U92" s="11">
         <v>2313.88</v>
@@ -7146,8 +7419,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X92" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>24446</v>
       </c>
@@ -7158,11 +7434,11 @@
         <v>22</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E93" s="10"/>
       <c r="F93" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G93" s="10"/>
       <c r="H93" s="10"/>
@@ -7210,8 +7486,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <v>24447</v>
       </c>
@@ -7222,17 +7501,17 @@
         <v>22</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E94" s="10"/>
       <c r="F94" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
       <c r="I94" s="10"/>
       <c r="J94" s="11">
-        <v>704.23</v>
+        <v>612.5</v>
       </c>
       <c r="K94" s="12" t="s">
         <v>25</v>
@@ -7256,13 +7535,13 @@
         <v>0.05</v>
       </c>
       <c r="R94" s="11">
-        <v>0</v>
+        <v>30.63</v>
       </c>
       <c r="S94" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T94" s="11">
-        <v>0</v>
+        <v>61.1</v>
       </c>
       <c r="U94" s="11">
         <v>704.23</v>
@@ -7274,8 +7553,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X94" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>24448</v>
       </c>
@@ -7286,17 +7568,17 @@
         <v>22</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E95" s="10"/>
       <c r="F95" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
       <c r="I95" s="10"/>
       <c r="J95" s="11">
-        <v>2917.5</v>
+        <v>2537.5</v>
       </c>
       <c r="K95" s="12" t="s">
         <v>25</v>
@@ -7320,13 +7602,13 @@
         <v>0.05</v>
       </c>
       <c r="R95" s="11">
-        <v>0</v>
+        <v>126.88</v>
       </c>
       <c r="S95" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T95" s="11">
-        <v>0</v>
+        <v>253.12</v>
       </c>
       <c r="U95" s="11">
         <v>2917.5</v>
@@ -7338,8 +7620,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X95" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <v>24449</v>
       </c>
@@ -7350,17 +7635,17 @@
         <v>22</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E96" s="10"/>
       <c r="F96" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
       <c r="I96" s="10"/>
       <c r="J96" s="11">
-        <v>3420.51</v>
+        <v>2975</v>
       </c>
       <c r="K96" s="12" t="s">
         <v>25</v>
@@ -7384,13 +7669,13 @@
         <v>0.05</v>
       </c>
       <c r="R96" s="11">
-        <v>0</v>
+        <v>148.75</v>
       </c>
       <c r="S96" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T96" s="11">
-        <v>0</v>
+        <v>296.76</v>
       </c>
       <c r="U96" s="11">
         <v>3420.51</v>
@@ -7402,8 +7687,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X96" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>24450</v>
       </c>
@@ -7414,17 +7702,17 @@
         <v>22</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E97" s="10"/>
       <c r="F97" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
       <c r="I97" s="10"/>
       <c r="J97" s="11">
-        <v>3018.09</v>
+        <v>2625</v>
       </c>
       <c r="K97" s="12" t="s">
         <v>25</v>
@@ -7448,13 +7736,13 @@
         <v>0.05</v>
       </c>
       <c r="R97" s="11">
-        <v>0</v>
+        <v>131.25</v>
       </c>
       <c r="S97" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T97" s="11">
-        <v>0</v>
+        <v>261.83999999999997</v>
       </c>
       <c r="U97" s="11">
         <v>3018.09</v>
@@ -7466,8 +7754,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X97" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>24451</v>
       </c>
@@ -7478,17 +7769,17 @@
         <v>22</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E98" s="10"/>
       <c r="F98" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
       <c r="I98" s="10"/>
       <c r="J98" s="11">
-        <v>3118.7</v>
+        <v>2712.5</v>
       </c>
       <c r="K98" s="12" t="s">
         <v>25</v>
@@ -7512,13 +7803,13 @@
         <v>0.05</v>
       </c>
       <c r="R98" s="11">
-        <v>0</v>
+        <v>135.63</v>
       </c>
       <c r="S98" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T98" s="11">
-        <v>0</v>
+        <v>270.57</v>
       </c>
       <c r="U98" s="11">
         <v>3118.7</v>
@@ -7530,8 +7821,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X98" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>24452</v>
       </c>
@@ -7542,17 +7836,17 @@
         <v>22</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E99" s="10"/>
       <c r="F99" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G99" s="10"/>
       <c r="H99" s="10"/>
       <c r="I99" s="10"/>
       <c r="J99" s="11">
-        <v>704.23</v>
+        <v>612.5</v>
       </c>
       <c r="K99" s="12" t="s">
         <v>25</v>
@@ -7576,13 +7870,13 @@
         <v>0.05</v>
       </c>
       <c r="R99" s="11">
-        <v>0</v>
+        <v>30.63</v>
       </c>
       <c r="S99" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T99" s="11">
-        <v>0</v>
+        <v>61.1</v>
       </c>
       <c r="U99" s="11">
         <v>704.23</v>
@@ -7594,8 +7888,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X99" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>24453</v>
       </c>
@@ -7606,17 +7903,17 @@
         <v>22</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E100" s="10"/>
       <c r="F100" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
       <c r="J100" s="11">
-        <v>14688.06</v>
+        <v>12775</v>
       </c>
       <c r="K100" s="12" t="s">
         <v>25</v>
@@ -7640,13 +7937,13 @@
         <v>0.05</v>
       </c>
       <c r="R100" s="11">
-        <v>0</v>
+        <v>638.75</v>
       </c>
       <c r="S100" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T100" s="11">
-        <v>0</v>
+        <v>1274.31</v>
       </c>
       <c r="U100" s="11">
         <v>14688.06</v>
@@ -7658,8 +7955,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X100" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>24454</v>
       </c>
@@ -7670,17 +7970,17 @@
         <v>22</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E101" s="10"/>
       <c r="F101" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G101" s="10"/>
       <c r="H101" s="10"/>
       <c r="I101" s="10"/>
       <c r="J101" s="11">
-        <v>2313.88</v>
+        <v>2012.5</v>
       </c>
       <c r="K101" s="12" t="s">
         <v>25</v>
@@ -7704,13 +8004,13 @@
         <v>0.05</v>
       </c>
       <c r="R101" s="11">
-        <v>0</v>
+        <v>100.63</v>
       </c>
       <c r="S101" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T101" s="11">
-        <v>0</v>
+        <v>200.75</v>
       </c>
       <c r="U101" s="11">
         <v>2313.88</v>
@@ -7722,8 +8022,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X101" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <v>24456</v>
       </c>
@@ -7734,17 +8037,17 @@
         <v>22</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E102" s="10"/>
       <c r="F102" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
       <c r="J102" s="11">
-        <v>704.23</v>
+        <v>612.5</v>
       </c>
       <c r="K102" s="12" t="s">
         <v>25</v>
@@ -7768,13 +8071,13 @@
         <v>0.05</v>
       </c>
       <c r="R102" s="11">
-        <v>0</v>
+        <v>30.63</v>
       </c>
       <c r="S102" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T102" s="11">
-        <v>0</v>
+        <v>61.1</v>
       </c>
       <c r="U102" s="11">
         <v>704.23</v>
@@ -7786,8 +8089,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X102" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <v>24457</v>
       </c>
@@ -7798,17 +8104,17 @@
         <v>22</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E103" s="10"/>
       <c r="F103" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G103" s="10"/>
       <c r="H103" s="10"/>
       <c r="I103" s="10"/>
       <c r="J103" s="11">
-        <v>2313.88</v>
+        <v>2012.5</v>
       </c>
       <c r="K103" s="12" t="s">
         <v>25</v>
@@ -7832,13 +8138,13 @@
         <v>0.05</v>
       </c>
       <c r="R103" s="11">
-        <v>0</v>
+        <v>100.63</v>
       </c>
       <c r="S103" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T103" s="11">
-        <v>0</v>
+        <v>200.75</v>
       </c>
       <c r="U103" s="11">
         <v>2313.88</v>
@@ -7850,8 +8156,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X103" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="7">
         <v>24458</v>
       </c>
@@ -7862,17 +8171,17 @@
         <v>22</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E104" s="10"/>
       <c r="F104" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G104" s="10"/>
       <c r="H104" s="10"/>
       <c r="I104" s="10"/>
       <c r="J104" s="11">
-        <v>402.41</v>
+        <v>350</v>
       </c>
       <c r="K104" s="12" t="s">
         <v>25</v>
@@ -7896,13 +8205,13 @@
         <v>0.05</v>
       </c>
       <c r="R104" s="11">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="S104" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T104" s="11">
-        <v>0</v>
+        <v>34.909999999999997</v>
       </c>
       <c r="U104" s="11">
         <v>402.41</v>
@@ -7914,8 +8223,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X104" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <v>24459</v>
       </c>
@@ -7926,17 +8238,17 @@
         <v>22</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E105" s="10"/>
       <c r="F105" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G105" s="10"/>
       <c r="H105" s="10"/>
       <c r="I105" s="10"/>
       <c r="J105" s="11">
-        <v>2414.48</v>
+        <v>2100</v>
       </c>
       <c r="K105" s="12" t="s">
         <v>25</v>
@@ -7960,13 +8272,13 @@
         <v>0.05</v>
       </c>
       <c r="R105" s="11">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="S105" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T105" s="11">
-        <v>0</v>
+        <v>209.48</v>
       </c>
       <c r="U105" s="11">
         <v>2414.48</v>
@@ -7978,8 +8290,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X105" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
         <v>24460</v>
       </c>
@@ -7990,17 +8305,17 @@
         <v>22</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E106" s="10"/>
       <c r="F106" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G106" s="10"/>
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
       <c r="J106" s="11">
-        <v>301.81</v>
+        <v>262.5</v>
       </c>
       <c r="K106" s="12" t="s">
         <v>25</v>
@@ -8024,13 +8339,13 @@
         <v>0.05</v>
       </c>
       <c r="R106" s="11">
-        <v>0</v>
+        <v>13.13</v>
       </c>
       <c r="S106" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T106" s="11">
-        <v>0</v>
+        <v>26.18</v>
       </c>
       <c r="U106" s="11">
         <v>301.81</v>
@@ -8042,8 +8357,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X106" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
         <v>24462</v>
       </c>
@@ -8054,17 +8372,17 @@
         <v>22</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E107" s="10"/>
       <c r="F107" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G107" s="10"/>
       <c r="H107" s="10"/>
       <c r="I107" s="10"/>
       <c r="J107" s="11">
-        <v>3018.09</v>
+        <v>2625</v>
       </c>
       <c r="K107" s="12" t="s">
         <v>25</v>
@@ -8088,13 +8406,13 @@
         <v>0.05</v>
       </c>
       <c r="R107" s="11">
-        <v>0</v>
+        <v>131.25</v>
       </c>
       <c r="S107" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T107" s="11">
-        <v>0</v>
+        <v>261.83999999999997</v>
       </c>
       <c r="U107" s="11">
         <v>3018.09</v>
@@ -8106,8 +8424,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X107" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
         <v>24463</v>
       </c>
@@ -8118,17 +8439,17 @@
         <v>22</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E108" s="10"/>
       <c r="F108" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G108" s="10"/>
       <c r="H108" s="10"/>
       <c r="I108" s="10"/>
       <c r="J108" s="11">
-        <v>1810.86</v>
+        <v>1575</v>
       </c>
       <c r="K108" s="12" t="s">
         <v>25</v>
@@ -8152,13 +8473,13 @@
         <v>0.05</v>
       </c>
       <c r="R108" s="11">
-        <v>0</v>
+        <v>78.75</v>
       </c>
       <c r="S108" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T108" s="11">
-        <v>0</v>
+        <v>157.11000000000001</v>
       </c>
       <c r="U108" s="11">
         <v>1810.86</v>
@@ -8170,8 +8491,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X108" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
         <v>24464</v>
       </c>
@@ -8182,17 +8506,17 @@
         <v>22</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E109" s="10"/>
       <c r="F109" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G109" s="10"/>
       <c r="H109" s="10"/>
       <c r="I109" s="10"/>
       <c r="J109" s="11">
-        <v>1207.24</v>
+        <v>1050</v>
       </c>
       <c r="K109" s="12" t="s">
         <v>25</v>
@@ -8216,13 +8540,13 @@
         <v>0.05</v>
       </c>
       <c r="R109" s="11">
-        <v>0</v>
+        <v>52.5</v>
       </c>
       <c r="S109" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T109" s="11">
-        <v>0</v>
+        <v>104.74</v>
       </c>
       <c r="U109" s="11">
         <v>1207.24</v>
@@ -8234,8 +8558,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X109" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
         <v>24465</v>
       </c>
@@ -8246,17 +8573,17 @@
         <v>22</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E110" s="10"/>
       <c r="F110" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
       <c r="I110" s="10"/>
       <c r="J110" s="11">
-        <v>603.62</v>
+        <v>525</v>
       </c>
       <c r="K110" s="12" t="s">
         <v>25</v>
@@ -8280,13 +8607,13 @@
         <v>0.05</v>
       </c>
       <c r="R110" s="11">
-        <v>0</v>
+        <v>26.25</v>
       </c>
       <c r="S110" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T110" s="11">
-        <v>0</v>
+        <v>52.37</v>
       </c>
       <c r="U110" s="11">
         <v>603.62</v>
@@ -8298,8 +8625,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X110" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <v>24466</v>
       </c>
@@ -8310,17 +8640,17 @@
         <v>22</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E111" s="10"/>
       <c r="F111" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G111" s="10"/>
       <c r="H111" s="10"/>
       <c r="I111" s="10"/>
       <c r="J111" s="11">
-        <v>503.02</v>
+        <v>437.5</v>
       </c>
       <c r="K111" s="12" t="s">
         <v>25</v>
@@ -8344,13 +8674,13 @@
         <v>0.05</v>
       </c>
       <c r="R111" s="11">
-        <v>0</v>
+        <v>21.88</v>
       </c>
       <c r="S111" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T111" s="11">
-        <v>0</v>
+        <v>43.64</v>
       </c>
       <c r="U111" s="11">
         <v>503.02</v>
@@ -8362,8 +8692,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X111" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
         <v>24467</v>
       </c>
@@ -8374,17 +8707,17 @@
         <v>22</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E112" s="10"/>
       <c r="F112" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G112" s="10"/>
       <c r="H112" s="10"/>
       <c r="I112" s="10"/>
       <c r="J112" s="11">
-        <v>704.23</v>
+        <v>612.5</v>
       </c>
       <c r="K112" s="12" t="s">
         <v>25</v>
@@ -8408,13 +8741,13 @@
         <v>0.05</v>
       </c>
       <c r="R112" s="11">
-        <v>0</v>
+        <v>30.63</v>
       </c>
       <c r="S112" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T112" s="11">
-        <v>0</v>
+        <v>61.1</v>
       </c>
       <c r="U112" s="11">
         <v>704.23</v>
@@ -8426,8 +8759,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X112" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <v>24468</v>
       </c>
@@ -8438,17 +8774,17 @@
         <v>22</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E113" s="10"/>
       <c r="F113" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G113" s="10"/>
       <c r="H113" s="10"/>
       <c r="I113" s="10"/>
       <c r="J113" s="11">
-        <v>905.43</v>
+        <v>787.5</v>
       </c>
       <c r="K113" s="12" t="s">
         <v>25</v>
@@ -8472,13 +8808,13 @@
         <v>0.05</v>
       </c>
       <c r="R113" s="11">
-        <v>0</v>
+        <v>39.380000000000003</v>
       </c>
       <c r="S113" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T113" s="11">
-        <v>0</v>
+        <v>78.55</v>
       </c>
       <c r="U113" s="11">
         <v>905.43</v>
@@ -8490,8 +8826,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X113" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
         <v>24469</v>
       </c>
@@ -8502,17 +8841,17 @@
         <v>22</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E114" s="10"/>
       <c r="F114" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G114" s="10"/>
       <c r="H114" s="10"/>
       <c r="I114" s="10"/>
       <c r="J114" s="11">
-        <v>1408.44</v>
+        <v>1225</v>
       </c>
       <c r="K114" s="12" t="s">
         <v>25</v>
@@ -8536,13 +8875,13 @@
         <v>0.05</v>
       </c>
       <c r="R114" s="11">
-        <v>0</v>
+        <v>61.25</v>
       </c>
       <c r="S114" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T114" s="11">
-        <v>0</v>
+        <v>122.19</v>
       </c>
       <c r="U114" s="11">
         <v>1408.44</v>
@@ -8554,8 +8893,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X114" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <v>24470</v>
       </c>
@@ -8566,17 +8908,17 @@
         <v>22</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E115" s="10"/>
       <c r="F115" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G115" s="10"/>
       <c r="H115" s="10"/>
       <c r="I115" s="10"/>
       <c r="J115" s="11">
-        <v>12963.43</v>
+        <v>8575</v>
       </c>
       <c r="K115" s="12" t="s">
         <v>25</v>
@@ -8594,19 +8936,19 @@
         <v>27</v>
       </c>
       <c r="P115" s="11">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="Q115" s="13">
         <v>0.05</v>
       </c>
       <c r="R115" s="11">
-        <v>0</v>
+        <v>563.75</v>
       </c>
       <c r="S115" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T115" s="11">
-        <v>0</v>
+        <v>1124.68</v>
       </c>
       <c r="U115" s="11">
         <v>12963.43</v>
@@ -8618,8 +8960,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X115" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <v>24471</v>
       </c>
@@ -8630,17 +8975,17 @@
         <v>22</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E116" s="10"/>
       <c r="F116" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G116" s="10"/>
       <c r="H116" s="10"/>
       <c r="I116" s="10"/>
       <c r="J116" s="11">
-        <v>1509.05</v>
+        <v>1312.5</v>
       </c>
       <c r="K116" s="12" t="s">
         <v>25</v>
@@ -8664,13 +9009,13 @@
         <v>0.05</v>
       </c>
       <c r="R116" s="11">
-        <v>0</v>
+        <v>65.63</v>
       </c>
       <c r="S116" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T116" s="11">
-        <v>0</v>
+        <v>130.91999999999999</v>
       </c>
       <c r="U116" s="11">
         <v>1509.05</v>
@@ -8682,8 +9027,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X116" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
         <v>24472</v>
       </c>
@@ -8694,17 +9042,17 @@
         <v>22</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E117" s="10"/>
       <c r="F117" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G117" s="10"/>
       <c r="H117" s="10"/>
       <c r="I117" s="10"/>
       <c r="J117" s="11">
-        <v>13279.61</v>
+        <v>11550</v>
       </c>
       <c r="K117" s="12" t="s">
         <v>25</v>
@@ -8728,13 +9076,13 @@
         <v>0.05</v>
       </c>
       <c r="R117" s="11">
-        <v>0</v>
+        <v>577.5</v>
       </c>
       <c r="S117" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T117" s="11">
-        <v>0</v>
+        <v>1152.1099999999999</v>
       </c>
       <c r="U117" s="11">
         <v>13279.61</v>
@@ -8746,8 +9094,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X117" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
         <v>24473</v>
       </c>
@@ -8758,17 +9109,17 @@
         <v>22</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E118" s="10"/>
       <c r="F118" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G118" s="10"/>
       <c r="H118" s="10"/>
       <c r="I118" s="10"/>
       <c r="J118" s="11">
-        <v>6740.41</v>
+        <v>5862.5</v>
       </c>
       <c r="K118" s="12" t="s">
         <v>25</v>
@@ -8792,13 +9143,13 @@
         <v>0.05</v>
       </c>
       <c r="R118" s="11">
-        <v>0</v>
+        <v>293.13</v>
       </c>
       <c r="S118" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T118" s="11">
-        <v>0</v>
+        <v>584.78</v>
       </c>
       <c r="U118" s="11">
         <v>6740.41</v>
@@ -8810,8 +9161,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X118" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
         <v>24474</v>
       </c>
@@ -8822,17 +9176,17 @@
         <v>22</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E119" s="10"/>
       <c r="F119" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G119" s="10"/>
       <c r="H119" s="10"/>
       <c r="I119" s="10"/>
       <c r="J119" s="11">
-        <v>905.43</v>
+        <v>787.5</v>
       </c>
       <c r="K119" s="12" t="s">
         <v>25</v>
@@ -8856,13 +9210,13 @@
         <v>0.05</v>
       </c>
       <c r="R119" s="11">
-        <v>0</v>
+        <v>39.380000000000003</v>
       </c>
       <c r="S119" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T119" s="11">
-        <v>0</v>
+        <v>78.55</v>
       </c>
       <c r="U119" s="11">
         <v>905.43</v>
@@ -8874,10 +9228,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X119" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B120" s="8">
         <v>45269</v>
@@ -8896,7 +9253,7 @@
       <c r="H120" s="10"/>
       <c r="I120" s="10"/>
       <c r="J120" s="11">
-        <v>4728.3500000000004</v>
+        <v>4112.5</v>
       </c>
       <c r="K120" s="12" t="s">
         <v>25</v>
@@ -8920,13 +9277,13 @@
         <v>0.05</v>
       </c>
       <c r="R120" s="11">
-        <v>0</v>
+        <v>205.63</v>
       </c>
       <c r="S120" s="14">
         <v>9.9750000000000005E-2</v>
       </c>
       <c r="T120" s="11">
-        <v>0</v>
+        <v>410.22</v>
       </c>
       <c r="U120" s="11">
         <v>4728.3500000000004</v>
@@ -8938,18 +9295,100 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="X120" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J124" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="K124" s="24"/>
+      <c r="L124" s="24"/>
+      <c r="M124" s="24"/>
+      <c r="N124" s="24"/>
+      <c r="O124" s="24"/>
+      <c r="P124" s="24"/>
+      <c r="Q124" s="24"/>
+      <c r="R124" s="24"/>
+      <c r="S124" s="24"/>
+      <c r="T124" s="24"/>
+      <c r="U124" s="24"/>
+      <c r="V124" s="25"/>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J125" s="15">
+        <f>SUM(J2:J120)</f>
+        <v>345935.86</v>
+      </c>
+      <c r="L125" s="16">
+        <f>SUM(L2:L120)</f>
+        <v>435</v>
+      </c>
+      <c r="N125" s="16">
+        <f>SUM(N2:N120)</f>
+        <v>700</v>
+      </c>
+      <c r="P125" s="16">
+        <f>SUM(P2:P120)</f>
+        <v>2700</v>
+      </c>
+      <c r="R125" s="16">
+        <f>SUM(R2:R120)</f>
+        <v>17398.319999999982</v>
+      </c>
+      <c r="T125" s="16">
+        <f>SUM(T2:T120)</f>
+        <v>34709.049999999981</v>
+      </c>
+      <c r="U125" s="16">
+        <f>SUM(U2:U120)</f>
+        <v>401878.22999999986</v>
+      </c>
+      <c r="V125" s="17"/>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J126" s="18"/>
+      <c r="V126" s="17"/>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J127" s="19"/>
+      <c r="K127" s="20"/>
+      <c r="L127" s="20"/>
+      <c r="M127" s="20"/>
+      <c r="N127" s="20"/>
+      <c r="O127" s="20"/>
+      <c r="P127" s="20"/>
+      <c r="Q127" s="20"/>
+      <c r="R127" s="20"/>
+      <c r="S127" s="20"/>
+      <c r="T127" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="U127" s="21">
+        <f>(J125+P125+L125+N125+R125+T125)</f>
+        <v>401878.23</v>
+      </c>
+      <c r="V127" s="22">
+        <f>(U125-U127)</f>
+        <v>-1.1641532182693481E-10</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J124:V124"/>
+  </mergeCells>
   <conditionalFormatting sqref="A2:V120">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>AND($A2&lt;&gt;"",MOD(ROW(),2)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W120">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>"$W2&lt;&gt;0"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>